--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101196.9460511661</v>
+        <v>18396561.97203067</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101196.9460511661</v>
+        <v>18396561.97203067</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>250917.5561015569</v>
+        <v>30252787.11646305</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250917.5561015569</v>
+        <v>30252787.11646305</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1604094311.412807</v>
+        <v>25297622.07583668</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18560.86317519599</v>
+        <v>655097.1285387896</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36191.59356484695</v>
+        <v>1172279.072122043</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53989.55548352833</v>
+        <v>1689461.015705298</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72031.30467824644</v>
+        <v>2051780.307012121</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>89475.6937504354</v>
+        <v>2599104.301956088</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106699.6310170577</v>
+        <v>3114343.659360667</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>123911.6933065256</v>
+        <v>3629583.016247222</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>141129.7861837022</v>
+        <v>4144822.372460924</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>159180.1690994329</v>
+        <v>4507659.687028566</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>176613.1597195661</v>
+        <v>5057444.294248955</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>193811.4066404609</v>
+        <v>5574626.23783221</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>211009.6535613557</v>
+        <v>6091808.181415466</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>228207.9004822505</v>
+        <v>6608990.124998721</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245901.8812429424</v>
+        <v>7042430.370766111</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>265928.1791916935</v>
+        <v>7266932.980914447</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>70</v>
@@ -27055,10 +27055,10 @@
         <v>7.26546006968568e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>24.99999927346752</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
